--- a/탐색적분석_시각화/과제_평균 요약.xlsx
+++ b/탐색적분석_시각화/과제_평균 요약.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SNU_BDI\탐색적분석_시각화\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnorfati/Documents/GitHub/SNU_BDI/탐색적분석_시각화/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="과제_평균 요약" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -840,91 +848,91 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,101 +1135,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20% - 강조1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
     <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="노트" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -1229,8 +1236,9 @@
     <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="중간" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="합계" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1538,55 +1546,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="D30" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" customWidth="1"/>
-    <col min="2" max="2" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="4.796875" customWidth="1"/>
-    <col min="5" max="5" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" customWidth="1"/>
-    <col min="7" max="7" width="4.69921875" customWidth="1"/>
-    <col min="8" max="8" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="11" max="11" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.8984375" customWidth="1"/>
-    <col min="14" max="14" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.83203125" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="27"/>
+      <c r="E2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="27"/>
+      <c r="H2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="K2" s="8" t="s">
+      <c r="I2" s="27"/>
+      <c r="K2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="N2" s="8" t="s">
+      <c r="L2" s="27"/>
+      <c r="N2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="9"/>
+      <c r="O2" s="27"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -1619,233 +1627,233 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>8.36</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>0.88449999999999995</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <v>0.17100000000000001</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="9">
         <v>2.6349999999999998</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="9">
         <v>0.1225</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>7.7792452830188701</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>0.69396226415094298</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <v>0.174150943396226</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="9">
         <v>2.6943396226415102</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="9">
         <v>9.0679245283018906E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>8.1672540381791503</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>0.57704111600587404</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <v>0.243685756240822</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="9">
         <v>2.5288546255506601</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="9">
         <v>9.2735682819383297E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>8.3471786833855806</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>0.49748432601880899</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="9">
         <v>0.27382445141065798</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="9">
         <v>2.4771943573667699</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="9">
         <v>8.4956112852664606E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>8.8723618090452305</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>0.40391959798994997</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <v>0.37517587939698499</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <v>2.7206030150753802</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="9">
         <v>7.6587939698492494E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>8.56666666666667</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <v>0.42333333333333301</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <v>0.39111111111111102</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="11">
         <v>2.5777777777777802</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="11">
         <v>6.8444444444444405E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="27"/>
+      <c r="E11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="H11" s="8" t="s">
+      <c r="F11" s="27"/>
+      <c r="H11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="K11" s="8" t="s">
+      <c r="I11" s="27"/>
+      <c r="K11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="N11" s="8" t="s">
+      <c r="L11" s="27"/>
+      <c r="N11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="Q11" s="8" t="s">
+      <c r="O11" s="27"/>
+      <c r="Q11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="R11" s="27"/>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
@@ -1884,272 +1892,272 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>24.9</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="9">
         <v>0.99746400000000002</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="9">
         <v>3.3980000000000001</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="9">
         <v>0.56999999999999995</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="9">
         <v>9.9550000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>12.264150943396199</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>36.245283018867902</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="9">
         <v>0.99654245283018905</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="9">
         <v>3.3815094339622598</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="9">
         <v>0.59641509433962303</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="9">
         <v>10.2650943396226</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>16.983847283406799</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>56.513950073421398</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="9">
         <v>0.99710362701909006</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="9">
         <v>3.30494860499266</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="9">
         <v>0.62096916299559501</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="9">
         <v>9.89970631424376</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>15.711598746081499</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>40.869905956112902</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="9">
         <v>0.99661506269592504</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="9">
         <v>3.3180721003134801</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="9">
         <v>0.675329153605016</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="9">
         <v>10.6295193312382</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>14.045226130653299</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>35.020100502512598</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="9">
         <v>0.99610427135678403</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="9">
         <v>3.2907537688442199</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="9">
         <v>0.74125628140703503</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="9">
         <v>11.4659128978392</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="1:18" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <v>13.2777777777778</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="11">
         <v>33.4444444444444</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="11">
         <v>0.99521222222222205</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="11">
         <v>3.26722222222222</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="11">
         <v>0.767777777777778</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R18" s="13">
+      <c r="R18" s="11">
         <v>12.094444444444401</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:18" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="8" t="s">
+    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:18" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="27"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="8" t="s">
+      <c r="N21" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="9"/>
+      <c r="O21" s="27"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
@@ -2181,263 +2189,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="9">
         <v>7.6</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <v>0.33324999999999999</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="9">
         <v>0.33600000000000002</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="9">
         <v>6.3925000000000001</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="9">
         <v>5.4300000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="9">
         <v>7.1294478527607401</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <v>0.38122699386503101</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="9">
         <v>0.30423312883435599</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="9">
         <v>4.6282208588957099</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="9">
         <v>5.0098159509202503E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="9">
         <v>6.9339739190116703</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="9">
         <v>0.30201098146877098</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="9">
         <v>0.33765271105010303</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="9">
         <v>7.3349691146190796</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="9">
         <v>5.1546328071379599E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="9">
         <v>6.8376706096451301</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="9">
         <v>0.26056414922657001</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="9">
         <v>0.33802547770700597</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="9">
         <v>6.4416060054595103</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O26" s="9">
         <v>4.5217470427661499E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="9">
         <v>6.7347159090909097</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="9">
         <v>0.26276704545454499</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="9">
         <v>0.325625</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="9">
         <v>5.1864772727272701</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="9">
         <v>3.8190909090909102E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="9">
         <v>6.6571428571428601</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="9">
         <v>0.27739999999999998</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="9">
         <v>0.32651428571428598</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="9">
         <v>5.6714285714285699</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O28" s="9">
         <v>3.8314285714285697E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="11">
         <v>7.42</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="11">
         <v>0.29799999999999999</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="11">
         <v>0.38600000000000001</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="11">
         <v>4.12</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="11">
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="8" t="s">
+    <row r="30" spans="1:18" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="9"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L31" s="9"/>
+      <c r="L31" s="27"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="8" t="s">
+      <c r="N31" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="O31" s="9"/>
+      <c r="O31" s="27"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="8" t="s">
+      <c r="Q31" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="R31" s="9"/>
-    </row>
-    <row r="32" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="R31" s="27"/>
+    </row>
+    <row r="32" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
@@ -2475,432 +2483,443 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="9">
         <v>53.325000000000003</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="9">
         <v>170.6</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="9">
         <v>0.99488399999999999</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="9">
         <v>3.1875</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="9">
         <v>0.47449999999999998</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R33" s="9">
         <v>10.345000000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="9">
         <v>23.358895705521501</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="9">
         <v>125.279141104294</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="9">
         <v>0.99427668711656403</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="9">
         <v>3.1828834355828199</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34" s="9">
         <v>0.47613496932515298</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R34" s="9">
         <v>10.1524539877301</v>
       </c>
     </row>
-    <row r="35" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="9">
         <v>36.432052161976699</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="9">
         <v>150.90459849004799</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="9">
         <v>0.99526257035003396</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="9">
         <v>3.1688332189430302</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O35" s="11">
+      <c r="O35" s="9">
         <v>0.48220315717227202</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R35" s="11">
+      <c r="R35" s="9">
         <v>9.8088400823610193</v>
       </c>
     </row>
-    <row r="36" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="9">
         <v>35.650591446769802</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="9">
         <v>137.04731574158299</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="9">
         <v>0.993961348953594</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="9">
         <v>3.18859872611465</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O36" s="9">
         <v>0.49110555050045501</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R36" s="11">
+      <c r="R36" s="9">
         <v>10.5753715498938</v>
       </c>
     </row>
-    <row r="37" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="9">
         <v>34.125568181818203</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="9">
         <v>125.11477272727301</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="9">
         <v>0.99245239772727301</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="9">
         <v>3.2138977272727298</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O37" s="9">
         <v>0.50310227272727304</v>
       </c>
       <c r="Q37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R37" s="11">
+      <c r="R37" s="9">
         <v>11.3679356060606</v>
       </c>
     </row>
-    <row r="38" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="9">
         <v>36.72</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="9">
         <v>126.165714285714</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="9">
         <v>0.99223594285714301</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="9">
         <v>3.2186857142857099</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O38" s="9">
         <v>0.48622857142857101</v>
       </c>
       <c r="Q38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R38" s="11">
+      <c r="R38" s="9">
         <v>11.635999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:18" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:18" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="11">
         <v>33.4</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="11">
         <v>116</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="11">
         <v>0.99146000000000001</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="11">
         <v>3.3079999999999998</v>
       </c>
       <c r="N39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="11">
         <v>0.46600000000000003</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R39" s="13">
+      <c r="R39" s="11">
         <v>12.18</v>
       </c>
     </row>
-    <row r="40" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="56" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="14" t="s">
+    <row r="40" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="32.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="15" t="s">
+    <row r="57" spans="2:5" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="18"/>
-    </row>
-    <row r="58" spans="2:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="19" t="s">
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" spans="2:5" ht="40" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="22"/>
-    </row>
-    <row r="59" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="19" t="s">
+      <c r="E58" s="20"/>
+    </row>
+    <row r="59" spans="2:5" ht="31" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E59" s="25"/>
-    </row>
-    <row r="60" spans="2:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="19" t="s">
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="2:5" ht="46" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="22"/>
-    </row>
-    <row r="61" spans="2:5" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="19" t="s">
+      <c r="E60" s="20"/>
+    </row>
+    <row r="61" spans="2:5" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="25"/>
-    </row>
-    <row r="62" spans="2:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="19" t="s">
+      <c r="E61" s="23"/>
+    </row>
+    <row r="62" spans="2:5" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E62" s="22"/>
-    </row>
-    <row r="63" spans="2:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="19" t="s">
+      <c r="E62" s="20"/>
+    </row>
+    <row r="63" spans="2:5" ht="46" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="24" t="s">
+      <c r="C63" s="23"/>
+      <c r="D63" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E63" s="25"/>
-    </row>
-    <row r="64" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="19" t="s">
+      <c r="E63" s="23"/>
+    </row>
+    <row r="64" spans="2:5" ht="31" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="22"/>
-    </row>
-    <row r="65" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="19" t="s">
+      <c r="E64" s="20"/>
+    </row>
+    <row r="65" spans="2:5" ht="31" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E65" s="25"/>
-    </row>
-    <row r="66" spans="2:5" ht="41.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="19" t="s">
+      <c r="E65" s="23"/>
+    </row>
+    <row r="66" spans="2:5" ht="43" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="22"/>
-    </row>
-    <row r="67" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="19" t="s">
+      <c r="E66" s="20"/>
+    </row>
+    <row r="67" spans="2:5" ht="31" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="25"/>
-    </row>
-    <row r="68" spans="2:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="19" t="s">
+      <c r="E67" s="23"/>
+    </row>
+    <row r="68" spans="2:5" ht="61" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E68" s="22"/>
+      <c r="E68" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="N31:O31"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="Q11:R11"/>
@@ -2912,17 +2931,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="N31:O31"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
